--- a/value_box_sens.xlsx
+++ b/value_box_sens.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18890</v>
+        <v>19125</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14019</v>
+        <v>14331</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1794</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>17424</v>
+        <v>17671</v>
       </c>
     </row>
   </sheetData>

--- a/value_box_sens.xlsx
+++ b/value_box_sens.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19125</v>
+        <v>19455</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14331</v>
+        <v>14562</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1802</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>17671</v>
+        <v>18019</v>
       </c>
     </row>
   </sheetData>

--- a/value_box_sens.xlsx
+++ b/value_box_sens.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19455</v>
+        <v>19477</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14562</v>
+        <v>14574</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1816</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>18019</v>
+        <v>18042</v>
       </c>
     </row>
   </sheetData>

--- a/value_box_sens.xlsx
+++ b/value_box_sens.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19477</v>
+        <v>19486</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14574</v>
+        <v>14660</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1818</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>18042</v>
+        <v>18159</v>
       </c>
     </row>
   </sheetData>
